--- a/biology/Botanique/Fa_Tsuan_Wang/Fa_Tsuan_Wang.xlsx
+++ b/biology/Botanique/Fa_Tsuan_Wang/Fa_Tsuan_Wang.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Fa Tsuan Wang, né en 1899 et mort en 1985, est un botaniste chinois, qui entretenait d'intenses contacts scientifiques avec les Jardins botaniques royaux de Kew[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fa Tsuan Wang, né en 1899 et mort en 1985, est un botaniste chinois, qui entretenait d'intenses contacts scientifiques avec les Jardins botaniques royaux de Kew.
 </t>
         </is>
       </c>
@@ -511,14 +523,50 @@
           <t>Quelques publications</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Contributions à la connaissance des orchidacées d'Asie orientale II. Tang Tsin, Wang Fa-Tsuan, Acta Phytotaxonomica Sinica 1951 1 (1): 23-102. Bureau de rédaction, J. of Systematics and Evolution, Institute of Botany, CAS, Xiangshan, Beijing, Chine
 Notes sur les liliacées chinoises X. Wang Fa-Tsuan, Tang Tsin, Acta Phytotaxonomica Sinica 1951 1 (1): 119-120. Bureau de rédaction, J. of Systematics and Evolution, Institute of Botany, CAS, Xiangshan, Beijing, Chine
 Deux nouvelles plantes utiles de Chin-fu Shan, sud du Szechuan. Wang Fa-Tsuan, Tang Tsin, Acta Phytotaxonomica Sinica 1951 1 (1): 127-128 The Editorial Office, J. of Systematics and Evolution, Institute of Botany, CAS, Xiangshan, Peking, China
-Deux nouveaux carex de Hopei. Wang Fa-Tsuan, Tang Tsin, Acta Phytotaxonomica Sinica 1951 1 (1): 133-134 The Editorial Office, J. of Systematics and Evolution, Institute of Botany, CAS, Xiangshan, Peking, China
-Livres
-fa-tsuan Wang, chanter-chi Chen, ching-yu Chang, lun-kai Dai, chanté-yun Liang, yen-chen Tang, liang Liou, kai-yung Lang . 1978 . Flora reipublicae popularis Sinicae delectis Flora reipublicae popularis Sinicae agendae academiae Sinicae éditions: Tom 15. Angiospermes. Monocotyledoneae. Liliacées (2) . Vol.15 de Flora reipublicae popularis Sinicae. Ed. Institutum Botanicum Academiae. 280 pp.</t>
+Deux nouveaux carex de Hopei. Wang Fa-Tsuan, Tang Tsin, Acta Phytotaxonomica Sinica 1951 1 (1): 133-134 The Editorial Office, J. of Systematics and Evolution, Institute of Botany, CAS, Xiangshan, Peking, China</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Fa_Tsuan_Wang</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fa_Tsuan_Wang</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Quelques publications</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Livres</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>fa-tsuan Wang, chanter-chi Chen, ching-yu Chang, lun-kai Dai, chanté-yun Liang, yen-chen Tang, liang Liou, kai-yung Lang . 1978 . Flora reipublicae popularis Sinicae delectis Flora reipublicae popularis Sinicae agendae academiae Sinicae éditions: Tom 15. Angiospermes. Monocotyledoneae. Liliacées (2) . Vol.15 de Flora reipublicae popularis Sinicae. Ed. Institutum Botanicum Academiae. 280 pp.</t>
         </is>
       </c>
     </row>
